--- a/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,57; 95,15</t>
+          <t>83,94; 95,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,85; 91,56</t>
+          <t>56,45; 92,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,66; 92,76</t>
+          <t>76,8; 92,58</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,71; 85,62</t>
+          <t>79,65; 85,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 86,24</t>
+          <t>81,51; 86,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,45; 85,2</t>
+          <t>81,17; 84,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,3; 94,42</t>
+          <t>88,63; 94,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 90,21</t>
+          <t>84,59; 90,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,68; 91,65</t>
+          <t>87,67; 91,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,5; 87,54</t>
+          <t>83,56; 87,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,96; 86,76</t>
+          <t>82,89; 86,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,74; 86,64</t>
+          <t>83,95; 86,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,94; 95,65</t>
+          <t>83,57; 95,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,45; 92,05</t>
+          <t>57,85; 91,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,8; 92,58</t>
+          <t>76,66; 92,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,65; 85,34</t>
+          <t>79,71; 85,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,51; 86,03</t>
+          <t>81,91; 86,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,17; 84,95</t>
+          <t>81,45; 85,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,63; 94,51</t>
+          <t>88,3; 94,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,59; 90,36</t>
+          <t>84,43; 90,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,67; 91,8</t>
+          <t>87,68; 91,65</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,56; 87,49</t>
+          <t>83,5; 87,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,89; 86,77</t>
+          <t>82,96; 86,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,95; 86,82</t>
+          <t>83,74; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>87,89%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,57; 95,15</t>
+          <t>82,49; 94,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,85; 91,56</t>
+          <t>62,1; 91,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,66; 92,76</t>
+          <t>79,56; 92,94</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>85,02%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,71; 85,62</t>
+          <t>80,52; 91,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 86,24</t>
+          <t>82,96; 88,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,45; 85,2</t>
+          <t>82,49; 89,84</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>90,02%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,3; 94,42</t>
+          <t>88,29; 94,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,43; 90,21</t>
+          <t>84,68; 90,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,68; 91,65</t>
+          <t>87,68; 91,74</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>86,49%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,5; 87,54</t>
+          <t>84,32; 91,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,96; 86,76</t>
+          <t>84,0; 88,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,74; 86,64</t>
+          <t>84,73; 89,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,49; 94,95</t>
+          <t>82,9; 95,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,1; 91,82</t>
+          <t>66,52; 92,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,56; 92,94</t>
+          <t>80,41; 92,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,52; 91,52</t>
+          <t>80,53; 91,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,96; 88,75</t>
+          <t>82,6; 88,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,49; 89,84</t>
+          <t>82,22; 89,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,29; 94,46</t>
+          <t>88,86; 94,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,68; 90,36</t>
+          <t>85,13; 90,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,68; 91,74</t>
+          <t>87,89; 91,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,32; 91,39</t>
+          <t>84,44; 91,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,0; 88,32</t>
+          <t>84,16; 88,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,73; 89,79</t>
+          <t>84,83; 89,29</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que concilia su vida profesional y laboral</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119242</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67702</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>186944</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109518; 125800</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53625; 74697</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>171034; 197666</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1169179</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>804502</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1973681</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1110468; 1265692</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>778486; 833337</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1908577; 2071782</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>413127</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>385465</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>798593</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>398478; 424381</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>373474; 397173</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>779689; 814244</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1701548</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1257670</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2959218</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1654659; 1786861</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1230310; 1292729</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2902407; 3054915</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>